--- a/results/clickstreams/MLN1.xlsx
+++ b/results/clickstreams/MLN1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="4900" yWindow="1000" windowWidth="28160" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Neuro</t>
   </si>
@@ -102,16 +102,70 @@
   </si>
   <si>
     <t xml:space="preserve"> Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Product0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Product1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Product2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Product3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Detail0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Detail1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Detail2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Detail3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,13 +188,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,15 +480,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Y7"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,25 +547,49 @@
         <v>18</v>
       </c>
       <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AC1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AD1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AE1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AF1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AG1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -560,25 +648,49 @@
         <v>44</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>909</v>
       </c>
       <c r="U2">
+        <v>616</v>
+      </c>
+      <c r="V2">
+        <v>649</v>
+      </c>
+      <c r="W2">
+        <v>822</v>
+      </c>
+      <c r="X2">
+        <v>357</v>
+      </c>
+      <c r="Y2">
+        <v>347</v>
+      </c>
+      <c r="Z2">
+        <v>606</v>
+      </c>
+      <c r="AA2">
+        <v>357</v>
+      </c>
+      <c r="AB2">
+        <v>3</v>
+      </c>
+      <c r="AC2">
         <v>71</v>
       </c>
-      <c r="V2">
+      <c r="AD2">
         <v>55</v>
       </c>
-      <c r="W2">
-        <v>3</v>
-      </c>
-      <c r="X2">
+      <c r="AE2">
+        <v>3</v>
+      </c>
+      <c r="AF2">
         <v>27</v>
       </c>
-      <c r="Y2">
+      <c r="AG2">
         <v>144863</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -636,26 +748,50 @@
       <c r="S3">
         <v>18</v>
       </c>
-      <c r="T3">
-        <v>3</v>
+      <c r="T3" s="2">
+        <v>583</v>
       </c>
       <c r="U3">
+        <v>391</v>
+      </c>
+      <c r="V3">
+        <v>385</v>
+      </c>
+      <c r="W3" s="1">
+        <v>615</v>
+      </c>
+      <c r="X3">
+        <v>242</v>
+      </c>
+      <c r="Y3">
+        <v>219</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>457</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>226</v>
+      </c>
+      <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AC3">
         <v>44</v>
       </c>
-      <c r="V3">
+      <c r="AD3">
         <v>19</v>
       </c>
-      <c r="W3">
-        <v>3</v>
-      </c>
-      <c r="X3">
+      <c r="AE3">
+        <v>3</v>
+      </c>
+      <c r="AF3">
         <v>36</v>
       </c>
-      <c r="Y3">
+      <c r="AG3">
         <v>204165</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -713,26 +849,50 @@
       <c r="S4">
         <v>18</v>
       </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4">
+      <c r="T4" s="1">
+        <v>207</v>
+      </c>
+      <c r="U4" s="2">
+        <v>138</v>
+      </c>
+      <c r="V4" s="2">
+        <v>138</v>
+      </c>
+      <c r="W4">
+        <v>97</v>
+      </c>
+      <c r="X4" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y4">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>76</v>
+      </c>
+      <c r="AA4">
+        <v>54</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
         <v>21</v>
       </c>
-      <c r="V4">
+      <c r="AD4">
         <v>26</v>
       </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
-      <c r="X4">
+      <c r="AE4">
+        <v>3</v>
+      </c>
+      <c r="AF4">
         <v>15</v>
       </c>
-      <c r="Y4">
+      <c r="AG4">
         <v>94453</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -790,26 +950,50 @@
       <c r="S5">
         <v>7</v>
       </c>
-      <c r="T5">
-        <v>3</v>
+      <c r="T5" s="2">
+        <v>93</v>
       </c>
       <c r="U5">
-        <v>5</v>
-      </c>
-      <c r="V5">
+        <v>73</v>
+      </c>
+      <c r="V5" s="1">
+        <v>103</v>
+      </c>
+      <c r="W5" s="2">
+        <v>92</v>
+      </c>
+      <c r="X5">
+        <v>34</v>
+      </c>
+      <c r="Y5">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>55</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>5</v>
+      </c>
+      <c r="AD5">
         <v>9</v>
       </c>
-      <c r="W5">
-        <v>3</v>
-      </c>
-      <c r="X5">
+      <c r="AE5">
+        <v>3</v>
+      </c>
+      <c r="AF5">
         <v>29</v>
       </c>
-      <c r="Y5">
+      <c r="AG5">
         <v>43895</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -868,25 +1052,49 @@
         <v>1</v>
       </c>
       <c r="T6">
+        <v>17</v>
+      </c>
+      <c r="U6">
+        <v>14</v>
+      </c>
+      <c r="V6">
+        <v>15</v>
+      </c>
+      <c r="W6">
+        <v>18</v>
+      </c>
+      <c r="X6">
+        <v>6</v>
+      </c>
+      <c r="Y6">
+        <v>6</v>
+      </c>
+      <c r="Z6">
+        <v>6</v>
+      </c>
+      <c r="AA6">
+        <v>22</v>
+      </c>
+      <c r="AB6">
         <v>2</v>
       </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
         <v>2</v>
       </c>
-      <c r="X6">
+      <c r="AF6">
         <v>70</v>
       </c>
-      <c r="Y6">
+      <c r="AG6">
         <v>169749</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -945,21 +1153,45 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="W7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+      <c r="Z7">
+        <v>4</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>3</v>
+      </c>
+      <c r="AF7">
         <v>20</v>
       </c>
-      <c r="Y7">
+      <c r="AG7">
         <v>166850</v>
       </c>
     </row>
